--- a/uploads/Product_data.xlsx
+++ b/uploads/Product_data.xlsx
@@ -151,7 +151,7 @@
     <t xml:space="preserve">ABIXIM 100MG TAB 10S</t>
   </si>
   <si>
-    <t xml:space="preserve">Test</t>
+    <t xml:space="preserve">Test2</t>
   </si>
 </sst>
 </file>
@@ -250,11 +250,11 @@
   </sheetPr>
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.42"/>
